--- a/relatorios/repasses_liberados/dentistas/07416280400/2023-08-25_relatorio_repasses_07416280400.xlsx
+++ b/relatorios/repasses_liberados/dentistas/07416280400/2023-08-25_relatorio_repasses_07416280400.xlsx
@@ -804,10 +804,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1772,10 +1772,10 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -4676,10 +4676,10 @@
         <v>0.368421</v>
       </c>
       <c r="M91">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N91">
-        <v>24.7578912</v>
+        <v>33.0105216</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4808,10 +4808,10 @@
         <v>0.131579</v>
       </c>
       <c r="M94">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N94">
-        <v>4.210528</v>
+        <v>3.157896</v>
       </c>
     </row>
   </sheetData>

--- a/relatorios/repasses_liberados/dentistas/07416280400/2023-08-25_relatorio_repasses_07416280400.xlsx
+++ b/relatorios/repasses_liberados/dentistas/07416280400/2023-08-25_relatorio_repasses_07416280400.xlsx
@@ -804,10 +804,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N3">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -848,10 +848,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -892,10 +892,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N5">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1420,10 +1420,10 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N17">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1464,10 +1464,10 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N18">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1508,10 +1508,10 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1772,10 +1772,10 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N25">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1860,10 +1860,10 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1904,10 +1904,10 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1948,10 +1948,10 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1992,10 +1992,10 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N30">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2036,10 +2036,10 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N31">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2124,10 +2124,10 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N33">
-        <v>255</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2300,10 +2300,10 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N37">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2344,10 +2344,10 @@
         <v>1</v>
       </c>
       <c r="M38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N38">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2388,10 +2388,10 @@
         <v>1</v>
       </c>
       <c r="M39">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N39">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2432,10 +2432,10 @@
         <v>1</v>
       </c>
       <c r="M40">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2564,10 +2564,10 @@
         <v>1</v>
       </c>
       <c r="M43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N43">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2608,10 +2608,10 @@
         <v>1</v>
       </c>
       <c r="M44">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2652,10 +2652,10 @@
         <v>1</v>
       </c>
       <c r="M45">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2696,10 +2696,10 @@
         <v>1</v>
       </c>
       <c r="M46">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N46">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2740,10 +2740,10 @@
         <v>1</v>
       </c>
       <c r="M47">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2872,10 +2872,10 @@
         <v>1</v>
       </c>
       <c r="M50">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N50">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3136,10 +3136,10 @@
         <v>1</v>
       </c>
       <c r="M56">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N56">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3180,10 +3180,10 @@
         <v>1</v>
       </c>
       <c r="M57">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N57">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3224,10 +3224,10 @@
         <v>1</v>
       </c>
       <c r="M58">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N58">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3400,10 +3400,10 @@
         <v>1</v>
       </c>
       <c r="M62">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4060,10 +4060,10 @@
         <v>1</v>
       </c>
       <c r="M77">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N77">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4104,10 +4104,10 @@
         <v>1</v>
       </c>
       <c r="M78">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N78">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="M79">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N79">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4236,10 +4236,10 @@
         <v>1</v>
       </c>
       <c r="M81">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N81">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4676,10 +4676,10 @@
         <v>0.368421</v>
       </c>
       <c r="M91">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N91">
-        <v>33.0105216</v>
+        <v>24.7578912</v>
       </c>
     </row>
     <row r="92" spans="1:14">
